--- a/data/hotels_by_city/Houston/Houston_shard_85.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_85.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223158-Reviews-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Clarion-Inn-Suites-West-Chase.h327868.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1051 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r543630921-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223158</t>
+  </si>
+  <si>
+    <t>543630921</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Not too bad of a place. Awesome staff, well lit parking area, though meh on the breakfast.</t>
+  </si>
+  <si>
+    <t>This is a roadside motel branded on the fancier side of the Choice Hotels lineup; though it desperately needs some updating and improvements.
+My first impression, as I pulled up after driving for twelve hours, was the hotel “security guard”, reclined in his car, tablet playing a video on the steering wheel, dirty sock on his foot hanging out of the driver’s side window, and nodding off to the point he didn’t even notice me pull up. I’m sure the local hooligans shiver in fear at his crime prevention prowess…
+Despite this, I found the check-in process and staff to be outstanding! Just a great, happy, lovely demeanor and well needed after my trip. The process was done in moments and I was off to my room. The room was very spacious, and certainly worth the cost provided (but not much more). The bed was acceptable, though perhaps a bit too much on the firm side for my liking (I still got plenty of rest).
+Despite being near to the Houston Beltway, the room was very quiet. I pretty much slept like a baby while I was there. The shower was very good, I found the water pressure and quickness of hot water coming up to be a benefit.
+The breakfast was okay, but typical hotel fare – nothing fancy. One concern with breakfast, though, was the occasional ‘urban outdoorsman’ who would wander into the hotel and chow down before...This is a roadside motel branded on the fancier side of the Choice Hotels lineup; though it desperately needs some updating and improvements.My first impression, as I pulled up after driving for twelve hours, was the hotel “security guard”, reclined in his car, tablet playing a video on the steering wheel, dirty sock on his foot hanging out of the driver’s side window, and nodding off to the point he didn’t even notice me pull up. I’m sure the local hooligans shiver in fear at his crime prevention prowess…Despite this, I found the check-in process and staff to be outstanding! Just a great, happy, lovely demeanor and well needed after my trip. The process was done in moments and I was off to my room. The room was very spacious, and certainly worth the cost provided (but not much more). The bed was acceptable, though perhaps a bit too much on the firm side for my liking (I still got plenty of rest).Despite being near to the Houston Beltway, the room was very quiet. I pretty much slept like a baby while I was there. The shower was very good, I found the water pressure and quickness of hot water coming up to be a benefit.The breakfast was okay, but typical hotel fare – nothing fancy. One concern with breakfast, though, was the occasional ‘urban outdoorsman’ who would wander into the hotel and chow down before beginning their hard working day of panhandling on the corner. The hotel has signs up stating “guests only”, and staff do try to be quick about removing such individuals; but a couple of vagrants did slip past the watchful eye of the hotel staff. One suggestion might be to keep the security officer on a few hours longer to monitor the breakfast area. It shouldn’t be too much of a stretch and the officer, as noted above, should be pretty well rested after their night of ‘work’.The ugly here, what gets me, is the hotel is just dirty. I’m wondering when was the last time the hotel rooms had the carpeting shampooed? It is pretty bad when, after showering, and walking to the bed to get dressed, that I have to clean the bottom of my feet because I walked barefoot. Frankly, it is a very distressing problem. The towel used would be visibly dirty afterward. All-in-all, not a bad hotel; but certainly not the best I’ve stayed at, either.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a roadside motel branded on the fancier side of the Choice Hotels lineup; though it desperately needs some updating and improvements.
+My first impression, as I pulled up after driving for twelve hours, was the hotel “security guard”, reclined in his car, tablet playing a video on the steering wheel, dirty sock on his foot hanging out of the driver’s side window, and nodding off to the point he didn’t even notice me pull up. I’m sure the local hooligans shiver in fear at his crime prevention prowess…
+Despite this, I found the check-in process and staff to be outstanding! Just a great, happy, lovely demeanor and well needed after my trip. The process was done in moments and I was off to my room. The room was very spacious, and certainly worth the cost provided (but not much more). The bed was acceptable, though perhaps a bit too much on the firm side for my liking (I still got plenty of rest).
+Despite being near to the Houston Beltway, the room was very quiet. I pretty much slept like a baby while I was there. The shower was very good, I found the water pressure and quickness of hot water coming up to be a benefit.
+The breakfast was okay, but typical hotel fare – nothing fancy. One concern with breakfast, though, was the occasional ‘urban outdoorsman’ who would wander into the hotel and chow down before...This is a roadside motel branded on the fancier side of the Choice Hotels lineup; though it desperately needs some updating and improvements.My first impression, as I pulled up after driving for twelve hours, was the hotel “security guard”, reclined in his car, tablet playing a video on the steering wheel, dirty sock on his foot hanging out of the driver’s side window, and nodding off to the point he didn’t even notice me pull up. I’m sure the local hooligans shiver in fear at his crime prevention prowess…Despite this, I found the check-in process and staff to be outstanding! Just a great, happy, lovely demeanor and well needed after my trip. The process was done in moments and I was off to my room. The room was very spacious, and certainly worth the cost provided (but not much more). The bed was acceptable, though perhaps a bit too much on the firm side for my liking (I still got plenty of rest).Despite being near to the Houston Beltway, the room was very quiet. I pretty much slept like a baby while I was there. The shower was very good, I found the water pressure and quickness of hot water coming up to be a benefit.The breakfast was okay, but typical hotel fare – nothing fancy. One concern with breakfast, though, was the occasional ‘urban outdoorsman’ who would wander into the hotel and chow down before beginning their hard working day of panhandling on the corner. The hotel has signs up stating “guests only”, and staff do try to be quick about removing such individuals; but a couple of vagrants did slip past the watchful eye of the hotel staff. One suggestion might be to keep the security officer on a few hours longer to monitor the breakfast area. It shouldn’t be too much of a stretch and the officer, as noted above, should be pretty well rested after their night of ‘work’.The ugly here, what gets me, is the hotel is just dirty. I’m wondering when was the last time the hotel rooms had the carpeting shampooed? It is pretty bad when, after showering, and walking to the bed to get dressed, that I have to clean the bottom of my feet because I walked barefoot. Frankly, it is a very distressing problem. The towel used would be visibly dirty afterward. All-in-all, not a bad hotel; but certainly not the best I’ve stayed at, either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r539575436-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539575436</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Disorganized dump</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel early in the afternoon, drove 4.5 hours and arrived about 10:00pm. The room I was assigned had not been turned and had the last occupants garbage all over the room, bed was untouched; in short housekeeping missed it totally. It smelled like cigarettes, just like the lobby and elevator. Front desk clerk explained that there were no other rooms and spoke to GM who offered me a free night later to comp me.  No thanks, I’ll get my bed bugs elsewhere. The bamboo growing on the lobby coffee table is a mosquito farm too. Poorly managed and run Clarion. I hope corporate sees this review and pays them a visit.  I’m also asking Concur to remove it from their site for business travelers. Horrible, just horrible. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel early in the afternoon, drove 4.5 hours and arrived about 10:00pm. The room I was assigned had not been turned and had the last occupants garbage all over the room, bed was untouched; in short housekeeping missed it totally. It smelled like cigarettes, just like the lobby and elevator. Front desk clerk explained that there were no other rooms and spoke to GM who offered me a free night later to comp me.  No thanks, I’ll get my bed bugs elsewhere. The bamboo growing on the lobby coffee table is a mosquito farm too. Poorly managed and run Clarion. I hope corporate sees this review and pays them a visit.  I’m also asking Concur to remove it from their site for business travelers. Horrible, just horrible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r512885063-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512885063</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Definitely going back!</t>
+  </si>
+  <si>
+    <t>The location is great and was close to the places we were going to. The young woman in the front desk was courteous and did her best to accomodate us. We were very tired, and they allowed us to check in a couple of hours earlier. The room was clean, and the bed was very comfortable. This place was also peacful and quiet.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r429769423-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429769423</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Much need rest, peace and quiet</t>
+  </si>
+  <si>
+    <t>Let me see where I should start? For starters this is a great location only a few seconds from Belt 8. The area was nice and quiet. The king size bed was so comfortable I could just lie there all day long. The pillows were nice and firm; overall it was a nice pleasant stay. I will definite stay here again in the future if I have to. The lady at the front desk were EXTREMELY NICE AND PLEASANT.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Laura R, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Let me see where I should start? For starters this is a great location only a few seconds from Belt 8. The area was nice and quiet. The king size bed was so comfortable I could just lie there all day long. The pillows were nice and firm; overall it was a nice pleasant stay. I will definite stay here again in the future if I have to. The lady at the front desk were EXTREMELY NICE AND PLEASANT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r413711394-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413711394</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>I Will DO IT AGAIN HERE too!</t>
+  </si>
+  <si>
+    <t>This was a very pleasant surprise, right around the corner from my last delivery in Houston. And they had enough room for me to park my BIG TRUCK! A very comfortable hotel with all the needed amenities to make ones stay a pleasant one.I walked next door to an excellent Seafood Buffet that I will definitely revisit as well.The staff was friendly and efficient and the hotel was very affordable. I didn't get a chance to use too many of the added amenities because I had to leave out pretty early but I will, without a doubt, be stopping in again for a visit the next time I need a room in that part of Houston.I will be DOING IT AGAIN here at this Quality Inn and Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>This was a very pleasant surprise, right around the corner from my last delivery in Houston. And they had enough room for me to park my BIG TRUCK! A very comfortable hotel with all the needed amenities to make ones stay a pleasant one.I walked next door to an excellent Seafood Buffet that I will definitely revisit as well.The staff was friendly and efficient and the hotel was very affordable. I didn't get a chance to use too many of the added amenities because I had to leave out pretty early but I will, without a doubt, be stopping in again for a visit the next time I need a room in that part of Houston.I will be DOING IT AGAIN here at this Quality Inn and Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r406226280-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406226280</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Disappointing visit</t>
+  </si>
+  <si>
+    <t>Front desk helpful, but everything else...first off the room temp was set to 64 degrees and was FREEZING! The radio was left on and the sheets felt damp. Funky smell in the hall and different funk in the room. Went down for breakfast at 830 and there were no other got items besides a waffle. No sugar for the coffee and no spoons or stirrers. I've stayed at other Choice hotels and they usually are a great value. This, however, was not worth the price I paid. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Front desk helpful, but everything else...first off the room temp was set to 64 degrees and was FREEZING! The radio was left on and the sheets felt damp. Funky smell in the hall and different funk in the room. Went down for breakfast at 830 and there were no other got items besides a waffle. No sugar for the coffee and no spoons or stirrers. I've stayed at other Choice hotels and they usually are a great value. This, however, was not worth the price I paid. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r352108212-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352108212</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel stay </t>
+  </si>
+  <si>
+    <t>I loved my room and booked again on my second visit to Houston. The front desk staff was very helpful and courteous, especially Marquence. He set up my stay quickly and was very courteous. Would definitely recommend as a place to stay. Breakfast was good too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>I loved my room and booked again on my second visit to Houston. The front desk staff was very helpful and courteous, especially Marquence. He set up my stay quickly and was very courteous. Would definitely recommend as a place to stay. Breakfast was good too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r349409728-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349409728</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect visit for a family trip </t>
+  </si>
+  <si>
+    <t>We came to visit family and I have to say I am so happy that I found this hotel. Not only the price is right but the location is great and convenient!  The breakfast was good, better than the normal continental breakfast! What I like most about the place was the staff from management to maintenance! I liked how involved and pleasant everyone was made us feel right at home! Made our visit comfortable! I would highly recommend this hotel to anyone! I found my new go to place to stay at when we visit our Texas family. Watch out Monika, Anita, Corie, and staff you found you guys some regulars.  Thank you all for the great customer service!! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>We came to visit family and I have to say I am so happy that I found this hotel. Not only the price is right but the location is great and convenient!  The breakfast was good, better than the normal continental breakfast! What I like most about the place was the staff from management to maintenance! I liked how involved and pleasant everyone was made us feel right at home! Made our visit comfortable! I would highly recommend this hotel to anyone! I found my new go to place to stay at when we visit our Texas family. Watch out Monika, Anita, Corie, and staff you found you guys some regulars.  Thank you all for the great customer service!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r349035500-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349035500</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis </t>
+  </si>
+  <si>
+    <t>Maiquence , checked me at around 1: 45 am. He was very professional, excellent service and well mannered. Thank you for a great job. I enjoyed my stay, my room was clean and well organized and the breakfast was provided.  Everybody here and including front desk all to housekeeping,Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2016</t>
+  </si>
+  <si>
+    <t>Maiquence , checked me at around 1: 45 am. He was very professional, excellent service and well mannered. Thank you for a great job. I enjoyed my stay, my room was clean and well organized and the breakfast was provided.  Everybody here and including front desk all to housekeeping,Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r346096827-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346096827</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Pre Valentine Getaway!</t>
+  </si>
+  <si>
+    <t>As usual I have to say that my stay at the Quality Inn is nothing less than fantastic! The staff and manager are the most welcoming, accommodating and friendly people I have ever had the pleasure of meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>As usual I have to say that my stay at the Quality Inn is nothing less than fantastic! The staff and manager are the most welcoming, accommodating and friendly people I have ever had the pleasure of meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r345977795-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345977795</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Long-term stay for guests</t>
+  </si>
+  <si>
+    <t>We had some guests visiting from out of the country. Upon arriving at the hotel  the staff were very helpful and friendly service. The hotel staff were professional and efficient. There was hot breakfast each morning for our guests which made the trip more relaxing for us, knowing that they were taken care of each morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>We had some guests visiting from out of the country. Upon arriving at the hotel  the staff were very helpful and friendly service. The hotel staff were professional and efficient. There was hot breakfast each morning for our guests which made the trip more relaxing for us, knowing that they were taken care of each morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r345082081-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345082081</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Marquence Rocks</t>
+  </si>
+  <si>
+    <t>Marquence, really understands good customer service.  He is very polite, kind and always helpful.  I have had three different times I have dealt with him since I stay at the Quality Inn somewhat frequently lately.  He always has a can do attitude and more importantly has a complementing personality...MoreShow less</t>
+  </si>
+  <si>
+    <t>Marquence, really understands good customer service.  He is very polite, kind and always helpful.  I have had three different times I have dealt with him since I stay at the Quality Inn somewhat frequently lately.  He always has a can do attitude and more importantly has a complementing personality...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r341816579-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341816579</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Westchase Quality Inn &amp; Suites..."Marquence" was Great!</t>
+  </si>
+  <si>
+    <t>A nice man named Marquence checked me in at front desk at Westchase Quality Inn &amp; Suites.He was kind. He was warm and welcoming. I feel at home.I recommend this hotel to anyone.The room is super nice. Clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>A nice man named Marquence checked me in at front desk at Westchase Quality Inn &amp; Suites.He was kind. He was warm and welcoming. I feel at home.I recommend this hotel to anyone.The room is super nice. Clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r340671318-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340671318</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Marquence was awesome.  Got me accommodated awesomely.  Got the room with the jacuzzi tub.  Not many hotels have those. They also have free breakfast which is always a plus.  Room was also very big and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Marquence was awesome.  Got me accommodated awesomely.  Got the room with the jacuzzi tub.  Not many hotels have those. They also have free breakfast which is always a plus.  Room was also very big and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r339827260-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339827260</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel Staff.   Mr. Marquence</t>
+  </si>
+  <si>
+    <t>I travel most of the time on business.  I really like Mr. Marquence.  He would go out of his way to accommodate and help people.   I noticed this by seeing how he conducted business with his guest.  A friendly and out going person.  I wish I had someone with his spirit and attitude to work for me in my business.  Business travel is always hectic but he made you feel right at home.  5 STARS for service.    The bed was comfortable and room was always cleaned very nice when I returned from my work assignments.   If I do travel back to the area I would stay again.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>I travel most of the time on business.  I really like Mr. Marquence.  He would go out of his way to accommodate and help people.   I noticed this by seeing how he conducted business with his guest.  A friendly and out going person.  I wish I had someone with his spirit and attitude to work for me in my business.  Business travel is always hectic but he made you feel right at home.  5 STARS for service.    The bed was comfortable and room was always cleaned very nice when I returned from my work assignments.   If I do travel back to the area I would stay again.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r338772189-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338772189</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>A very bad experience</t>
+  </si>
+  <si>
+    <t>Terrible, the carpet dirty with gigant stains, the bathroom's floor sticky, the receptionist girl at night rude, unkind and very rough person.Although the housemaids very kind and helpful.The manager very nice and kind, but the hotel  is very damaged and it is not properly care. the breakfast buffet not good and even when it says until 9:30 am the girl starts to pick up the food since 9 am.For the price you can choose a best option in the areaa.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2016</t>
+  </si>
+  <si>
+    <t>Terrible, the carpet dirty with gigant stains, the bathroom's floor sticky, the receptionist girl at night rude, unkind and very rough person.Although the housemaids very kind and helpful.The manager very nice and kind, but the hotel  is very damaged and it is not properly care. the breakfast buffet not good and even when it says until 9:30 am the girl starts to pick up the food since 9 am.For the price you can choose a best option in the areaa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r333754073-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333754073</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>I am truly disappointed...refused to refund for first night even though I was only in the room for a few minutes  ...will NEVER stay at any Quality Inn...when we walked in the room every draw and cabinet was open...wth weird...in addition to trash and burn holes on the floor...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded December 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2015</t>
+  </si>
+  <si>
+    <t>I am truly disappointed...refused to refund for first night even though I was only in the room for a few minutes  ...will NEVER stay at any Quality Inn...when we walked in the room every draw and cabinet was open...wth weird...in addition to trash and burn holes on the floor...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r331978812-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331978812</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>family visit</t>
+  </si>
+  <si>
+    <t>Describe the service you experienced - good    Tell us how you liked the room - adequate    Talk about the location &amp; amenities - close to where I needed to be    Say what you liked best - breakfast &amp; least- pipesMoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Describe the service you experienced - good    Tell us how you liked the room - adequate    Talk about the location &amp; amenities - close to where I needed to be    Say what you liked best - breakfast &amp; least- pipesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r328146440-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328146440</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>It was One of the Worst Experience To Stay at this hotel</t>
+  </si>
+  <si>
+    <t>It was One of the Worst Experience To Stay at this hotel, Though the ambience is good but the view, location is not goodAnd one more thing though the hotel staff was knowing that we don't eat pork, they kept on keeping the same in Breakfast Every day And also the deal given by the hotel was Very Very Costly and the money paid Could have given us Stay in One of the Five Star hotels like Courtyard Marriot StayAll in not at all worth of the money spend to stay there. We stayed because of our Helplessness.Not at all recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>It was One of the Worst Experience To Stay at this hotel, Though the ambience is good but the view, location is not goodAnd one more thing though the hotel staff was knowing that we don't eat pork, they kept on keeping the same in Breakfast Every day And also the deal given by the hotel was Very Very Costly and the money paid Could have given us Stay in One of the Five Star hotels like Courtyard Marriot StayAll in not at all worth of the money spend to stay there. We stayed because of our Helplessness.Not at all recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r322531240-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322531240</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>A TOTAL RIP OFF AND OVER RATED HOTEL</t>
+  </si>
+  <si>
+    <t>I have been a top contributor to Tripadvisor for the past few years and have always given my true genuine opinion and reviews just because I truly belief in Tripadvisor's effort to provide advise and feedback for future travellers. 
+However for this particular hotel, I am totally disgusted and disappointed by what I had experienced with the management and service of Quality Inn Westchase Houston.
+1. We  had booked for 11nights stay amongst many others who were there for a particular religious conference. At first we had booked our hotel with Holiday Inn but as many of our relatives were staying there, we decided to shift to Quality Inn thinking we will enjoy the same rates. However upon checking in we were told that we will not be given the discounted rates due to daily rate changes etc and we were to abide to the increased rate for the date we checked in. Though extremely dissappointed, we had no choice but to agree to it. I had particularly checked with 3 different staff that the rates mentioned was all inclusive of taxes etc and they had agreed to it. But upon check out the GM Monica refused to provide us the previous mentioned rate and charged us taxes on it.  Monica seemed to be a professional with her charming ways but she turn out to be a very diplomatic lady who had no heart for her guests truly.
+2. The...I have been a top contributor to Tripadvisor for the past few years and have always given my true genuine opinion and reviews just because I truly belief in Tripadvisor's effort to provide advise and feedback for future travellers. However for this particular hotel, I am totally disgusted and disappointed by what I had experienced with the management and service of Quality Inn Westchase Houston.1. We  had booked for 11nights stay amongst many others who were there for a particular religious conference. At first we had booked our hotel with Holiday Inn but as many of our relatives were staying there, we decided to shift to Quality Inn thinking we will enjoy the same rates. However upon checking in we were told that we will not be given the discounted rates due to daily rate changes etc and we were to abide to the increased rate for the date we checked in. Though extremely dissappointed, we had no choice but to agree to it. I had particularly checked with 3 different staff that the rates mentioned was all inclusive of taxes etc and they had agreed to it. But upon check out the GM Monica refused to provide us the previous mentioned rate and charged us taxes on it.  Monica seemed to be a professional with her charming ways but she turn out to be a very diplomatic lady who had no heart for her guests truly.2. The second most disturbing incident was that . This hotel knew that they were over booked with our type of people who practiced Islam and shamelessly they had their breakfast menu full of PORK and above all showed no sensitivity towards their guest. It was only after someone took the matter to the extreme level and pointed out to them , only then they took the Pork off the menu and provided some decent breakfast for the rest of the days. This was truly very insensitive and we felt terrible over the other days.3. All hotels have a policy of cleaning the rooms daily. however when we first stayed, we came back to a totally unclean room. We were shocked and went to check with the reception who very coolly told us that if the room had personal items, they usually do not clean the room!!! This shocked me tremendously and i politely asked if we should be taking all our bags and personal belongings out every day so that they can clean the room !!! i found this ridiculous. I have stayed all over the world and never heard of such policy ever!!! only later did she correct herself and said we will have your rooms cleaned. that means every day before we leave i had to inform her to PLEASE clean our rooms. 4. with regards to cleanliness, let me point out to you. I found a rotten and smelly yogurt pack underneath the bed. this must have been left by some old guests and i saw this after 8th day of staying in the room. - the carpets were not vaccumed through out our stay as i saw the same rubbish at various places untouched.- i doubt the bedsheets were changed through out the entire 11nights stay- the rubbish bin on the sink in the bathroom was untouched for the entire stay !! we had to empty it ourselves.- the furniture is old and worn out and lighting is so bad - maybe they do not want us to see the real stuff !!to end this i just have to say. this will be my last and final time to ever stay in this hotel. I feel we have been totally ripped off by them and its absolutely not worth the rates and service. for the same price we could have stayed in some Marriot or Holiday Inn nearby.Monica, I am sorry but you with your sweet ways did not deliver what you promised.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>I have been a top contributor to Tripadvisor for the past few years and have always given my true genuine opinion and reviews just because I truly belief in Tripadvisor's effort to provide advise and feedback for future travellers. 
+However for this particular hotel, I am totally disgusted and disappointed by what I had experienced with the management and service of Quality Inn Westchase Houston.
+1. We  had booked for 11nights stay amongst many others who were there for a particular religious conference. At first we had booked our hotel with Holiday Inn but as many of our relatives were staying there, we decided to shift to Quality Inn thinking we will enjoy the same rates. However upon checking in we were told that we will not be given the discounted rates due to daily rate changes etc and we were to abide to the increased rate for the date we checked in. Though extremely dissappointed, we had no choice but to agree to it. I had particularly checked with 3 different staff that the rates mentioned was all inclusive of taxes etc and they had agreed to it. But upon check out the GM Monica refused to provide us the previous mentioned rate and charged us taxes on it.  Monica seemed to be a professional with her charming ways but she turn out to be a very diplomatic lady who had no heart for her guests truly.
+2. The...I have been a top contributor to Tripadvisor for the past few years and have always given my true genuine opinion and reviews just because I truly belief in Tripadvisor's effort to provide advise and feedback for future travellers. However for this particular hotel, I am totally disgusted and disappointed by what I had experienced with the management and service of Quality Inn Westchase Houston.1. We  had booked for 11nights stay amongst many others who were there for a particular religious conference. At first we had booked our hotel with Holiday Inn but as many of our relatives were staying there, we decided to shift to Quality Inn thinking we will enjoy the same rates. However upon checking in we were told that we will not be given the discounted rates due to daily rate changes etc and we were to abide to the increased rate for the date we checked in. Though extremely dissappointed, we had no choice but to agree to it. I had particularly checked with 3 different staff that the rates mentioned was all inclusive of taxes etc and they had agreed to it. But upon check out the GM Monica refused to provide us the previous mentioned rate and charged us taxes on it.  Monica seemed to be a professional with her charming ways but she turn out to be a very diplomatic lady who had no heart for her guests truly.2. The second most disturbing incident was that . This hotel knew that they were over booked with our type of people who practiced Islam and shamelessly they had their breakfast menu full of PORK and above all showed no sensitivity towards their guest. It was only after someone took the matter to the extreme level and pointed out to them , only then they took the Pork off the menu and provided some decent breakfast for the rest of the days. This was truly very insensitive and we felt terrible over the other days.3. All hotels have a policy of cleaning the rooms daily. however when we first stayed, we came back to a totally unclean room. We were shocked and went to check with the reception who very coolly told us that if the room had personal items, they usually do not clean the room!!! This shocked me tremendously and i politely asked if we should be taking all our bags and personal belongings out every day so that they can clean the room !!! i found this ridiculous. I have stayed all over the world and never heard of such policy ever!!! only later did she correct herself and said we will have your rooms cleaned. that means every day before we leave i had to inform her to PLEASE clean our rooms. 4. with regards to cleanliness, let me point out to you. I found a rotten and smelly yogurt pack underneath the bed. this must have been left by some old guests and i saw this after 8th day of staying in the room. - the carpets were not vaccumed through out our stay as i saw the same rubbish at various places untouched.- i doubt the bedsheets were changed through out the entire 11nights stay- the rubbish bin on the sink in the bathroom was untouched for the entire stay !! we had to empty it ourselves.- the furniture is old and worn out and lighting is so bad - maybe they do not want us to see the real stuff !!to end this i just have to say. this will be my last and final time to ever stay in this hotel. I feel we have been totally ripped off by them and its absolutely not worth the rates and service. for the same price we could have stayed in some Marriot or Holiday Inn nearby.Monica, I am sorry but you with your sweet ways did not deliver what you promised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r318014729-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318014729</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>The cleanest, friendliest place to stay at when in Houston.  Great location, close to everything..</t>
+  </si>
+  <si>
+    <t>After reading negative reviews, I was a hesitant.  I'm glad I gave it a chance.  This is the nicest, cleanest, friendliest hotel I have ever stayed at.  Corrie, Will (downtown Queens boy) &amp; housekeeping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2015</t>
+  </si>
+  <si>
+    <t>After reading negative reviews, I was a hesitant.  I'm glad I gave it a chance.  This is the nicest, cleanest, friendliest hotel I have ever stayed at.  Corrie, Will (downtown Queens boy) &amp; housekeeping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r294835634-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294835634</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Price over Quality Choice</t>
+  </si>
+  <si>
+    <t>The lobby and reception are nice. The front staff was very quick in checking in that is very imporatant to business travellers. The rooms are fair and clean but a little bit of a strange smell most likely from the AC.  The breakfast bar was good and had a pretty good selection everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>The lobby and reception are nice. The front staff was very quick in checking in that is very imporatant to business travellers. The rooms are fair and clean but a little bit of a strange smell most likely from the AC.  The breakfast bar was good and had a pretty good selection everyday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r275764455-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275764455</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Fair for the price</t>
+  </si>
+  <si>
+    <t>Let's be frank and keep expectations low. You're not heading to a 4 starts hotel.The receptionist is always kind and the rooms are cleaned in a proper way.Pros: clean, cheap, free parking/wifi and nice staff.Cons: no room service, no maintenance team available, carpets too old.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Let's be frank and keep expectations low. You're not heading to a 4 starts hotel.The receptionist is always kind and the rooms are cleaned in a proper way.Pros: clean, cheap, free parking/wifi and nice staff.Cons: no room service, no maintenance team available, carpets too old.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r265753436-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265753436</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Disapointment</t>
+  </si>
+  <si>
+    <t>I have been a road warrior for the past thirty years. The room provided had a filthy bathroom floor. I notified the front desk immediately. I received an apology but no action. The next day, after room cleaning the bathroom floor was still filthy. The room did not have shampoo, the breakfast coffee did not have any half &amp; half or plain creamer only flavored creamers. I checked out, went to a clean Comfort Suites for basically the same rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I have been a road warrior for the past thirty years. The room provided had a filthy bathroom floor. I notified the front desk immediately. I received an apology but no action. The next day, after room cleaning the bathroom floor was still filthy. The room did not have shampoo, the breakfast coffee did not have any half &amp; half or plain creamer only flavored creamers. I checked out, went to a clean Comfort Suites for basically the same rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r251368654-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251368654</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't do again</t>
+  </si>
+  <si>
+    <t>Had a room on the 4th floor, right by the center/elevator area.  Wifi was unusable on any of my devices.  No batteries in TV remote, few accessible outlets for charging.  Coffee in the lobby was cold.  Just don't seem to be trying very hard here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Had a room on the 4th floor, right by the center/elevator area.  Wifi was unusable on any of my devices.  No batteries in TV remote, few accessible outlets for charging.  Coffee in the lobby was cold.  Just don't seem to be trying very hard here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r232530425-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232530425</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Not the best but not the worst place to stay</t>
+  </si>
+  <si>
+    <t>For the most part the hotel is quiet and the rooms are comfortable. I stayed here on business for 4 days. The bad aspects:1. The breakfast is terrible. I can understand why it's free.2. If you need extra towels be prepared to be asked some questions by the hotel staff. 3. The front desk staff is rarely present at the front desk so you may have to wait.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>For the most part the hotel is quiet and the rooms are comfortable. I stayed here on business for 4 days. The bad aspects:1. The breakfast is terrible. I can understand why it's free.2. If you need extra towels be prepared to be asked some questions by the hotel staff. 3. The front desk staff is rarely present at the front desk so you may have to wait.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r228334480-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228334480</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Great stay for the price!</t>
+  </si>
+  <si>
+    <t>I am a travel agent and my church group and I came in on a Saturday.  When we arrived, the staff was very friendly and had us checked in very quickly.  The front desk even called my room to make sure everything was fine and up to my standards.  Everything was great!  The security guard was very helpful to us and our bus driver.  The manager, Ms. Laura, had everything together when we arrived.  It was a very quiet and peaceful stay.  We will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I am a travel agent and my church group and I came in on a Saturday.  When we arrived, the staff was very friendly and had us checked in very quickly.  The front desk even called my room to make sure everything was fine and up to my standards.  Everything was great!  The security guard was very helpful to us and our bus driver.  The manager, Ms. Laura, had everything together when we arrived.  It was a very quiet and peaceful stay.  We will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r204952346-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204952346</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Be Aware !!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. 
+I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk...I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk to manager (Laura) and Supervisor (Kim). Finally on the third day Kim tells me that it was discarded since we did nit know what it was. That made me so angry, I was speechless. I had my FedEx account number ready to give it to them and ask them to mail it to me (even arranging for the pick up).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. 
+I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk...I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk to manager (Laura) and Supervisor (Kim). Finally on the third day Kim tells me that it was discarded since we did nit know what it was. That made me so angry, I was speechless. I had my FedEx account number ready to give it to them and ask them to mail it to me (even arranging for the pick up).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r200963193-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200963193</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Seen Better Days</t>
+  </si>
+  <si>
+    <t>We booked for 2 Guests but there were 3 of us in that room, the size of the cockroach in the bathroom sink was big enough to count as one!! At least we did not find it until morning but I must have walked past it in the dark twice :(The whole room was not finished well, peeling paint and a little shabby. For $152.329 not a cheap stop over, would not rush back or recommend. Did not eat breakfast in Hotel even if free, went to the IHOP next door instead.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r199826718-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199826718</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Real good value for money. One of the cheapest option in the region.Rooms were clear and front desk people was always nice.The TV and the shower was also ok.Negative aspects: the breakfest was not ao good, but was for free though.Also there's no dining services, so no food ordering in your room.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r190344741-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190344741</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Don't stay next door</t>
+  </si>
+  <si>
+    <t>Our first stop was next door, because it was cheaper  by $15. After asking for a refund because the room was unsuitable we were asked to leave and not return.   We walked next door and found the Quality Inn, we were expecting the same results, but pleasantly found just the opposite, the rooms were very spacious, clean and the staff was great. suprising what $15 buys.   GOOD JOB EMPLOYEES OF QUALITY INN!</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r185893070-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185893070</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>"Love this Place!"</t>
+  </si>
+  <si>
+    <t>I got  more than I expect Excellent room size, good breakfast selection and excellent service from the front desk staff.There are restaurants and stores nearby some within walking distance and others within a short drive. The staff is friendly and helpful and ready to assist without hesitation was and I was  pleasently surprised with beds that were super comfortable and very clean, LOVED THE LOCATION AND WE WILL DEFINATELY BE BACK!! THANKS GUYS!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r185395610-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185395610</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Not the Worst Hotel I've Stayed in But…..</t>
+  </si>
+  <si>
+    <t>Pretty close to it. While travelling for work anyway. The hotel I usually stay in while in Houston was booked so our travel office put me here. I'd have rather driven another 20 minutes to stay somewhere clean, not stinky and where the staff cared about the hotel. Breakfast is flat awful, skip it entirely. Noisy, as it faces a very busy highway, worn, dirty and smelly is how I'd describe this hotel, which was apparently once a Holiday Inn. In the parking lot you can see where they spray painted the lighted sign and flipped the plastic around so you almost can't see the Holiday Inn logo. Guess the place was too nasty to be a Holiday Inn anymore so they flipped it….Go elsewhere even if you're on a budgetMoreShow less</t>
+  </si>
+  <si>
+    <t>Pretty close to it. While travelling for work anyway. The hotel I usually stay in while in Houston was booked so our travel office put me here. I'd have rather driven another 20 minutes to stay somewhere clean, not stinky and where the staff cared about the hotel. Breakfast is flat awful, skip it entirely. Noisy, as it faces a very busy highway, worn, dirty and smelly is how I'd describe this hotel, which was apparently once a Holiday Inn. In the parking lot you can see where they spray painted the lighted sign and flipped the plastic around so you almost can't see the Holiday Inn logo. Guess the place was too nasty to be a Holiday Inn anymore so they flipped it….Go elsewhere even if you're on a budgetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r180220360-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180220360</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service with a Smile</t>
+  </si>
+  <si>
+    <t>This was one of the best experiences I had had at a hotel.  When I came to check in, there was no one at the front desk.  A young gentleman came up behind me asking if I needed help.  I explained I was waiting to check in.  He said, "I apologize I am out of uniform as I just got off my shift, but I can help you with this seeing our other clerk is I am sure busy with another customer."  I have never experienced such willingness to assist, especially when someone is done with their shift.  Then I was missing an ice bucket in my room, the clerk at the front desk IMMEDIATELY got me one without question.  I would recommend this place to anyone traveling to Houston.  Awesome training of the staff, makes you feel right at home.  Rooms were very clean, the shower was AMAZING!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This was one of the best experiences I had had at a hotel.  When I came to check in, there was no one at the front desk.  A young gentleman came up behind me asking if I needed help.  I explained I was waiting to check in.  He said, "I apologize I am out of uniform as I just got off my shift, but I can help you with this seeing our other clerk is I am sure busy with another customer."  I have never experienced such willingness to assist, especially when someone is done with their shift.  Then I was missing an ice bucket in my room, the clerk at the front desk IMMEDIATELY got me one without question.  I would recommend this place to anyone traveling to Houston.  Awesome training of the staff, makes you feel right at home.  Rooms were very clean, the shower was AMAZING!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r178847003-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178847003</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Overall, disappointed in experience at this hotel.Pro.  1. Housekeeping did good job of keeping everything clean.2. Breakfast selection was good, and kept picked up.3. Room was large.Con.1. Location.  The noise from the beltway was continuous and loud.  2. Front desk staff can really make a difference -- for good or bad.  In the morning, I stopped by front desk to ask about check-out time.  Without looking up at me when I appeared at the front desk, the clerk said, "May I help you?"  I responded, "What time is regular check-out?"  He answered my question again without looking up even once.  Although his words were appropriate, the non-verbal message he sent was that his papers were much more important than spending 15 seconds to exchange a couple sentences with a customer who needed some assistance.I asked about places to eat the evening before checking out.  The desk clerk directed me to a specific nearby intersection for Chinese food.  I easily found the intersection, but there were no restaurants of any type at that intersection.  Nearest food places, in either direction, were a block or more away.  If you decide to stay here, I hope your experience is more positive than mine.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Overall, disappointed in experience at this hotel.Pro.  1. Housekeeping did good job of keeping everything clean.2. Breakfast selection was good, and kept picked up.3. Room was large.Con.1. Location.  The noise from the beltway was continuous and loud.  2. Front desk staff can really make a difference -- for good or bad.  In the morning, I stopped by front desk to ask about check-out time.  Without looking up at me when I appeared at the front desk, the clerk said, "May I help you?"  I responded, "What time is regular check-out?"  He answered my question again without looking up even once.  Although his words were appropriate, the non-verbal message he sent was that his papers were much more important than spending 15 seconds to exchange a couple sentences with a customer who needed some assistance.I asked about places to eat the evening before checking out.  The desk clerk directed me to a specific nearby intersection for Chinese food.  I easily found the intersection, but there were no restaurants of any type at that intersection.  Nearest food places, in either direction, were a block or more away.  If you decide to stay here, I hope your experience is more positive than mine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r178131798-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178131798</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>couldn't believe the value</t>
+  </si>
+  <si>
+    <t>Well I typically don't stay in this brand hotel so I was kind of leery when I got this one from a discount sight.  I was pleasantly surprised. The rooms were very clean, the beds for super comfortable. The hotel even offers a hot breakfast which was surprising good also for the money. If you are staying on business this is a good place to stay. They don't have a pool or anything like that but as a general overall place to rest it was really good.  The negatives are the location is right off the highway, not that you could hear it and no pool</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r157139348-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157139348</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great price, good location</t>
+  </si>
+  <si>
+    <t>Good location and great coupon price. Good service at the desk, free Today and Wall Street Journal newspapers, great breakfast with scrambled eggs, bananas, and good coffee. Good hard bed, flat screen TV, and clean, hot shower. I'll be back this week.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r153698743-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153698743</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised.</t>
+  </si>
+  <si>
+    <t>I usually steer clear of Quality Inns as they tend to be older and run down.  I booked this one based on reviews from Trip Advisor, and I'm glad I did.  This hotel is definitely nicer than the average Quality Inn, and was well worth the price I got.  Location was great, rooms were good, and I'd definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r152677891-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152677891</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>the hotel has an issue if you use the internet in the lobby on your labtop and then leave it may lock you out..That was the only issue I had. I received amazing service from Robin who was new there in regards to that, which influenced me to stay another night. Anton at front desk who was extremely helpful at 2am in the morning to assist me with maps etc to get around. He checked me in and also assisted me with other things very helpful. rooms are very clean and the location is great. Close to Galleria and 12 min drive to down town!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r144282484-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144282484</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here once and meet the general manager who couldnt be nicer! Rooms are very large and clean. Location is great lots of places in the area for dinner and some shopping. I hope my travels bring me back to Houston again real soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here once and meet the general manager who couldnt be nicer! Rooms are very large and clean. Location is great lots of places in the area for dinner and some shopping. I hope my travels bring me back to Houston again real soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r136018505-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136018505</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks on a extended stay.
+Its a very decent place. Its located in a great location write next to Westhiemer Road, close to many eating places, important offices, cinema halls etc. All within 20 minute car ride or less.
+The staff is good. Not superb but good. I had some problems with my bed lamp, two times in my stay. They fixed it both the times on the same day.
+I even ordered some goods from amazon ( I am from overseas). My packages were received by the staff and handed over. Nothing lost.
+The room service had excellent integrity. Many times I left my iphone, ipad or even some cash lying around. Nothing lost.
+The bed was extremely comfortable.
+Nice LCD with enough entertainment channels to pass the time.
+The best part - Free internet, Free Breakfast, Free printing services in the lobby, Free Gym ( nice gym) and of course free parking.
+The rooms are very big. Lot of space to walk in. You never feel claustrophobic.
+The bathrooms are nice. You don't cringe when you enter them
+Very safe place. No dubious characters around the place.
+Their are 5-6 hotels/motels right next to this property. Since I was on a extended stay, I checked them all out. I found this one the best amongst all. Best value for money. The one which comes closest to this is "Motel 6", which is newly renovated...Stayed here for 3 weeks on a extended stay.Its a very decent place. Its located in a great location write next to Westhiemer Road, close to many eating places, important offices, cinema halls etc. All within 20 minute car ride or less.The staff is good. Not superb but good. I had some problems with my bed lamp, two times in my stay. They fixed it both the times on the same day.I even ordered some goods from amazon ( I am from overseas). My packages were received by the staff and handed over. Nothing lost.The room service had excellent integrity. Many times I left my iphone, ipad or even some cash lying around. Nothing lost.The bed was extremely comfortable.Nice LCD with enough entertainment channels to pass the time.The best part - Free internet, Free Breakfast, Free printing services in the lobby, Free Gym ( nice gym) and of course free parking.The rooms are very big. Lot of space to walk in. You never feel claustrophobic.The bathrooms are nice. You don't cringe when you enter themVery safe place. No dubious characters around the place.Their are 5-6 hotels/motels right next to this property. Since I was on a extended stay, I checked them all out. I found this one the best amongst all. Best value for money. The one which comes closest to this is "Motel 6", which is newly renovated and right next door. All other properties seemed crap to me as I checked the rooms, talked to the staff etcGlitches :--1. Free Breakfast but not up to the mark. Same things served every day. Could be improved. And also the breakfast closes at 0930...too early for comfort!2. One day their fire alarm got activated in the afternoon. It took them good 5-6 hours to reset it and had to call external help. This meant cos of the noise, the room was unusable for that many hours3. The housekeeping girls though with great integrity but very pushy with "housekeeping services" at 10 am in the morning. They would bang on your door and even open it despite "do not disturb sign" on the door! Found that very strange. It happened to me many times till I went and expressed my anguish to the manager. This was not repeated after that.Feel free to ask me any questions, should You have any.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks on a extended stay.
+Its a very decent place. Its located in a great location write next to Westhiemer Road, close to many eating places, important offices, cinema halls etc. All within 20 minute car ride or less.
+The staff is good. Not superb but good. I had some problems with my bed lamp, two times in my stay. They fixed it both the times on the same day.
+I even ordered some goods from amazon ( I am from overseas). My packages were received by the staff and handed over. Nothing lost.
+The room service had excellent integrity. Many times I left my iphone, ipad or even some cash lying around. Nothing lost.
+The bed was extremely comfortable.
+Nice LCD with enough entertainment channels to pass the time.
+The best part - Free internet, Free Breakfast, Free printing services in the lobby, Free Gym ( nice gym) and of course free parking.
+The rooms are very big. Lot of space to walk in. You never feel claustrophobic.
+The bathrooms are nice. You don't cringe when you enter them
+Very safe place. No dubious characters around the place.
+Their are 5-6 hotels/motels right next to this property. Since I was on a extended stay, I checked them all out. I found this one the best amongst all. Best value for money. The one which comes closest to this is "Motel 6", which is newly renovated...Stayed here for 3 weeks on a extended stay.Its a very decent place. Its located in a great location write next to Westhiemer Road, close to many eating places, important offices, cinema halls etc. All within 20 minute car ride or less.The staff is good. Not superb but good. I had some problems with my bed lamp, two times in my stay. They fixed it both the times on the same day.I even ordered some goods from amazon ( I am from overseas). My packages were received by the staff and handed over. Nothing lost.The room service had excellent integrity. Many times I left my iphone, ipad or even some cash lying around. Nothing lost.The bed was extremely comfortable.Nice LCD with enough entertainment channels to pass the time.The best part - Free internet, Free Breakfast, Free printing services in the lobby, Free Gym ( nice gym) and of course free parking.The rooms are very big. Lot of space to walk in. You never feel claustrophobic.The bathrooms are nice. You don't cringe when you enter themVery safe place. No dubious characters around the place.Their are 5-6 hotels/motels right next to this property. Since I was on a extended stay, I checked them all out. I found this one the best amongst all. Best value for money. The one which comes closest to this is "Motel 6", which is newly renovated and right next door. All other properties seemed crap to me as I checked the rooms, talked to the staff etcGlitches :--1. Free Breakfast but not up to the mark. Same things served every day. Could be improved. And also the breakfast closes at 0930...too early for comfort!2. One day their fire alarm got activated in the afternoon. It took them good 5-6 hours to reset it and had to call external help. This meant cos of the noise, the room was unusable for that many hours3. The housekeeping girls though with great integrity but very pushy with "housekeeping services" at 10 am in the morning. They would bang on your door and even open it despite "do not disturb sign" on the door! Found that very strange. It happened to me many times till I went and expressed my anguish to the manager. This was not repeated after that.Feel free to ask me any questions, should You have any.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r134116738-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134116738</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, decent staff, great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here over spring break. Most of the staff was average ... like customer service wasn't the goal, but they were nice enough get by. Room was clean, no complaints. Location is fantastic. Westheimer is *right there*. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r67437267-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>67437267</t>
+  </si>
+  <si>
+    <t>06/14/2010</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>The hotel was average with the staff stingy in giving stuff like tooth pastes etc. But the rooms were clean, the food facility was not good and the laundry was delayed. The general stay was comfortable over all, except that I had to eat out all the time.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r39600051-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>39600051</t>
+  </si>
+  <si>
+    <t>09/02/2009</t>
+  </si>
+  <si>
+    <t>I felt at home</t>
+  </si>
+  <si>
+    <t>My family, along with some extended family stayed at this hotel for a funeral.  Although the circumstances of our stay were very sad, we had a pleasant experience in terms of the accomodations here.  Our rooms were on the first floor just off of the lobby, so we were close to the breakfast area and sitting area in the lobby. This was nice because it gave us convienient options for places to relax and talk.  The rooms were surprisingly large.  The photos I saw online did not do them justice.  There was a separate sitting area in the room, with a pull out couch (so, more people coud have stayed in one room than I realized).  Also, there was a very convienient, what I'd call "butler's pantry" area that included a microwave, mini fridge, sink, coffee maker and cabinets stocked with paper goods.  I did not see a single stain in the entire room or lobby area.  Everything was very clean. There were none of the typical annoyances like sinks that don't drain, bad water pressure or broken appliances. I am usually grossed out a bit by hotels, but was not at all by this one.  The furniture was mostly modern and the carpeting and tile floors all seemed new.  The bed linens were modern, bleach-white.  The beds and pillows were comfortable.  
+Nearby on Westheimer there is an overwhelming number of restaurants to choose from in either direction.  The surrounding...My family, along with some extended family stayed at this hotel for a funeral.  Although the circumstances of our stay were very sad, we had a pleasant experience in terms of the accomodations here.  Our rooms were on the first floor just off of the lobby, so we were close to the breakfast area and sitting area in the lobby. This was nice because it gave us convienient options for places to relax and talk.  The rooms were surprisingly large.  The photos I saw online did not do them justice.  There was a separate sitting area in the room, with a pull out couch (so, more people coud have stayed in one room than I realized).  Also, there was a very convienient, what I'd call "butler's pantry" area that included a microwave, mini fridge, sink, coffee maker and cabinets stocked with paper goods.  I did not see a single stain in the entire room or lobby area.  Everything was very clean. There were none of the typical annoyances like sinks that don't drain, bad water pressure or broken appliances. I am usually grossed out a bit by hotels, but was not at all by this one.  The furniture was mostly modern and the carpeting and tile floors all seemed new.  The bed linens were modern, bleach-white.  The beds and pillows were comfortable.  Nearby on Westheimer there is an overwhelming number of restaurants to choose from in either direction.  The surrounding area was clean.  The complimentary hotel breakfast was the standard for Holiday Inn Express, which I have found to be a little better than most.  They include eggs, yougurt and fruit instead of the usual carb. load you typically see. They do not have a pool. There is a small workout area and a computer in the lobby sitting area. My cousin was unable to get online for some reason though. There was one glitch in our stay: the first night there was alot of ruckus above us all through the night that disturbed our sleep. We could hear it from both of our side-by-side rooms.  It sounded like unsupervised children jumping from one end of the room to the next...very loud, constant banging.  We complained to the manager and staff several times who were apologetic and promised to talk to them.  The next morning we were offered a move to a new room.  We were afraid talking to them would do no good because it hadn't helped during the night when we complained at 3 am.  We liked our room  location and didn't want to move.  We felt that management should have considered asking the noisly people to move, not us.  Fortunatly, the next night was very quiet.  We could not hear any highway noise from the room either night, even though the hotel is right beside Beltway 8.  I would recommend  this hotel for it's cleanliness, spacious rooms, friendly staff, convienient location with lots of dining options nearby, and it's very decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>My family, along with some extended family stayed at this hotel for a funeral.  Although the circumstances of our stay were very sad, we had a pleasant experience in terms of the accomodations here.  Our rooms were on the first floor just off of the lobby, so we were close to the breakfast area and sitting area in the lobby. This was nice because it gave us convienient options for places to relax and talk.  The rooms were surprisingly large.  The photos I saw online did not do them justice.  There was a separate sitting area in the room, with a pull out couch (so, more people coud have stayed in one room than I realized).  Also, there was a very convienient, what I'd call "butler's pantry" area that included a microwave, mini fridge, sink, coffee maker and cabinets stocked with paper goods.  I did not see a single stain in the entire room or lobby area.  Everything was very clean. There were none of the typical annoyances like sinks that don't drain, bad water pressure or broken appliances. I am usually grossed out a bit by hotels, but was not at all by this one.  The furniture was mostly modern and the carpeting and tile floors all seemed new.  The bed linens were modern, bleach-white.  The beds and pillows were comfortable.  
+Nearby on Westheimer there is an overwhelming number of restaurants to choose from in either direction.  The surrounding...My family, along with some extended family stayed at this hotel for a funeral.  Although the circumstances of our stay were very sad, we had a pleasant experience in terms of the accomodations here.  Our rooms were on the first floor just off of the lobby, so we were close to the breakfast area and sitting area in the lobby. This was nice because it gave us convienient options for places to relax and talk.  The rooms were surprisingly large.  The photos I saw online did not do them justice.  There was a separate sitting area in the room, with a pull out couch (so, more people coud have stayed in one room than I realized).  Also, there was a very convienient, what I'd call "butler's pantry" area that included a microwave, mini fridge, sink, coffee maker and cabinets stocked with paper goods.  I did not see a single stain in the entire room or lobby area.  Everything was very clean. There were none of the typical annoyances like sinks that don't drain, bad water pressure or broken appliances. I am usually grossed out a bit by hotels, but was not at all by this one.  The furniture was mostly modern and the carpeting and tile floors all seemed new.  The bed linens were modern, bleach-white.  The beds and pillows were comfortable.  Nearby on Westheimer there is an overwhelming number of restaurants to choose from in either direction.  The surrounding area was clean.  The complimentary hotel breakfast was the standard for Holiday Inn Express, which I have found to be a little better than most.  They include eggs, yougurt and fruit instead of the usual carb. load you typically see. They do not have a pool. There is a small workout area and a computer in the lobby sitting area. My cousin was unable to get online for some reason though. There was one glitch in our stay: the first night there was alot of ruckus above us all through the night that disturbed our sleep. We could hear it from both of our side-by-side rooms.  It sounded like unsupervised children jumping from one end of the room to the next...very loud, constant banging.  We complained to the manager and staff several times who were apologetic and promised to talk to them.  The next morning we were offered a move to a new room.  We were afraid talking to them would do no good because it hadn't helped during the night when we complained at 3 am.  We liked our room  location and didn't want to move.  We felt that management should have considered asking the noisly people to move, not us.  Fortunatly, the next night was very quiet.  We could not hear any highway noise from the room either night, even though the hotel is right beside Beltway 8.  I would recommend  this hotel for it's cleanliness, spacious rooms, friendly staff, convienient location with lots of dining options nearby, and it's very decent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r22519417-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22519417</t>
+  </si>
+  <si>
+    <t>12/07/2008</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but our first room had a broken TV that we had to complain about several times. They eventually moved us to a new room. The staff was friendly and apologetic about the switch. If you stay here, be aware that you should not leave anything valuable in your car. Two cars were broken into the morning I left (including mine) in the parking lot at about 8:30 am. I had put a suitcase in the trunk then gone in to get some more stuff and someone was obviously watching - broke out the window and popped the trunk and took the suitcase. The police took a phone statement. Otherwise the hotel is reasonably priced and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but our first room had a broken TV that we had to complain about several times. They eventually moved us to a new room. The staff was friendly and apologetic about the switch. If you stay here, be aware that you should not leave anything valuable in your car. Two cars were broken into the morning I left (including mine) in the parking lot at about 8:30 am. I had put a suitcase in the trunk then gone in to get some more stuff and someone was obviously watching - broke out the window and popped the trunk and took the suitcase. The police took a phone statement. Otherwise the hotel is reasonably priced and clean.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1586,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1618,2954 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>227</v>
+      </c>
+      <c r="X28" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>345</v>
+      </c>
+      <c r="X41" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" t="s">
+        <v>368</v>
+      </c>
+      <c r="K45" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>371</v>
+      </c>
+      <c r="O45" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_85.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_85.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r553145750-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223158</t>
+  </si>
+  <si>
+    <t>553145750</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel I’ve stayed at in 4 years</t>
+  </si>
+  <si>
+    <t>Dirty, old, Moldy, worn out, smelly, torn carpet, stained carpet, door jamb damaged, tv doesn’t work. Check in girl was nice. Breakfast girl was sleep walking. Breakfast was basic and slightly less than what you’d get elsewhere. I’m surprised Choice allows this place to operated under its name. Sorry :(</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r550760928-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550760928</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid all around </t>
+  </si>
+  <si>
+    <t>Solid all around. Not far from the major road. Area appeared safe and lit well. Staff was able to check us in swiftly. Room was nice aside from noticing the next day the front door wasn't completely flush. However it was clean and beds were comfortable. Breakfast was available not the best but it was included so no complaints on that.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r543630921-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223158</t>
   </si>
   <si>
     <t>543630921</t>
@@ -181,9 +223,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This is a roadside motel branded on the fancier side of the Choice Hotels lineup; though it desperately needs some updating and improvements.
 My first impression, as I pulled up after driving for twelve hours, was the hotel “security guard”, reclined in his car, tablet playing a video on the steering wheel, dirty sock on his foot hanging out of the driver’s side window, and nodding off to the point he didn’t even notice me pull up. I’m sure the local hooligans shiver in fear at his crime prevention prowess…
 Despite this, I found the check-in process and staff to be outstanding! Just a great, happy, lovely demeanor and well needed after my trip. The process was done in moments and I was off to my room. The room was very spacious, and certainly worth the cost provided (but not much more). The bed was acceptable, though perhaps a bit too much on the firm side for my liking (I still got plenty of rest).
@@ -230,6 +269,60 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r457609558-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457609558</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Visit</t>
+  </si>
+  <si>
+    <t>Booked this room a year ago.   Paid $100 more per night because it was Super Bowl weekend.  The room was large but very dated. The furnishings were inexpensive but the bed linens were nice and the bed was comfortable. The front desk staff was polite and helpful. The hotel rooms are in a desperate need of renovations. There was wood colored duck tape on the bathroom door where the room door kept hitting it.  The bathroom surround was clean but had a crack. The bathroom sink had mold where it connected under the counter. Location was great. Easy to get downtown, to the Gallaria or to the stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Laura R, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Booked this room a year ago.   Paid $100 more per night because it was Super Bowl weekend.  The room was large but very dated. The furnishings were inexpensive but the bed linens were nice and the bed was comfortable. The front desk staff was polite and helpful. The hotel rooms are in a desperate need of renovations. There was wood colored duck tape on the bathroom door where the room door kept hitting it.  The bathroom surround was clean but had a crack. The bathroom sink had mold where it connected under the counter. Location was great. Easy to get downtown, to the Gallaria or to the stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r430469656-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430469656</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Bed bugs, uncomfortable beds</t>
+  </si>
+  <si>
+    <t>There were bed bugs in my bed apparently as I had itchy skin tags after the first night there . The room furnishings were outdated . The bathroom was good though and so was the microwave in the room Breakfast was unexcitingStaff ignored us most times seemed to lack interest in the guests experienceI would never stay here again for sure MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Front Office Supervisor at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>There were bed bugs in my bed apparently as I had itchy skin tags after the first night there . The room furnishings were outdated . The bathroom was good though and so was the microwave in the room Breakfast was unexcitingStaff ignored us most times seemed to lack interest in the guests experienceI would never stay here again for sure More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r429769423-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -314,6 +407,57 @@
     <t>Front desk helpful, but everything else...first off the room temp was set to 64 degrees and was FREEZING! The radio was left on and the sheets felt damp. Funky smell in the hall and different funk in the room. Went down for breakfast at 830 and there were no other got items besides a waffle. No sugar for the coffee and no spoons or stirrers. I've stayed at other Choice hotels and they usually are a great value. This, however, was not worth the price I paid. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r395140192-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395140192</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Bathroom issues and a rude clerk!</t>
+  </si>
+  <si>
+    <t>We checked in late on a weekday and the clerk, Eboni, was not friendly.  She greeted us with a mad face and a "YES?"  Plus, we didn't know about the refundable $50 deposit, but it was late so we just dealt with the surprise and the rudeness.  We stayed on the top floor in a king suite.  The hallway was stained and had dips in the floor.  The elevator smelt like burning metal.  The room itself was large and had high ceilings, a sofa, wet bar, iron, micro, fridge, cable, wifi, desk, drawers and good a/c.  All was clean and workable.  The only issues were in the bathroom.  Toilet had to be flushed multiple times.  The curtain rode was broken, so the curtain would not close on either side.  The tub was stopped up, so by the end of a shower you were ankle deep in water.  Location felt safe.  Quiet.  Bed ok.  If it weren't for the bathroom issues and the clerk's rudeness, we would have rated higher.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>We checked in late on a weekday and the clerk, Eboni, was not friendly.  She greeted us with a mad face and a "YES?"  Plus, we didn't know about the refundable $50 deposit, but it was late so we just dealt with the surprise and the rudeness.  We stayed on the top floor in a king suite.  The hallway was stained and had dips in the floor.  The elevator smelt like burning metal.  The room itself was large and had high ceilings, a sofa, wet bar, iron, micro, fridge, cable, wifi, desk, drawers and good a/c.  All was clean and workable.  The only issues were in the bathroom.  Toilet had to be flushed multiple times.  The curtain rode was broken, so the curtain would not close on either side.  The tub was stopped up, so by the end of a shower you were ankle deep in water.  Location felt safe.  Quiet.  Bed ok.  If it weren't for the bathroom issues and the clerk's rudeness, we would have rated higher.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r364037958-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364037958</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Awesome! !!</t>
+  </si>
+  <si>
+    <t>Everything was perfect!  Check in and out was fast. Staff was friendly.  Very clean and neat. Breakfast was decent. The stay was very comfortable. The value was great.  I would recommend this hotel. Staff was very knowledgeable about the area and was able to recommend great eating places. Very easy access to the beltway. Parking was adequate and well lit and felt safe. MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Everything was perfect!  Check in and out was fast. Staff was friendly.  Very clean and neat. Breakfast was decent. The stay was very comfortable. The value was great.  I would recommend this hotel. Staff was very knowledgeable about the area and was able to recommend great eating places. Very easy access to the beltway. Parking was adequate and well lit and felt safe. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r352108212-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -359,9 +503,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 21, 2016</t>
   </si>
   <si>
@@ -395,6 +536,45 @@
     <t>Maiquence , checked me at around 1: 45 am. He was very professional, excellent service and well mannered. Thank you for a great job. I enjoyed my stay, my room was clean and well organized and the breakfast was provided.  Everybody here and including front desk all to housekeeping,Thank you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r348986473-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348986473</t>
+  </si>
+  <si>
+    <t>Great Service and even better Staff</t>
+  </si>
+  <si>
+    <t>This hotel is great and the staff are great. Clean and in a great location. They make sure your taking care of in every aspect.  The breakfast is also always prepared very well . They also provide newspapers to guest. I definitely recommend this place if your staying a while. I've stayed here two weeks and absolutely love it. They are also very reasonable In their prices. The cleaning ladies do a very good job as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is great and the staff are great. Clean and in a great location. They make sure your taking care of in every aspect.  The breakfast is also always prepared very well . They also provide newspapers to guest. I definitely recommend this place if your staying a while. I've stayed here two weeks and absolutely love it. They are also very reasonable In their prices. The cleaning ladies do a very good job as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r348660811-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348660811</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best staff I have ever dealt with! </t>
+  </si>
+  <si>
+    <t>My first time booking at this hotel and I will definitely be back for my several short trips here to Houston. Mrs. Laura was so helpful, compassionate, friendly and super attentive to my service here.  I absolutely will be back the price is def affordable near all the great spots we love.   Thank you for the wonderful changes and experiences! Nguyen MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>My first time booking at this hotel and I will definitely be back for my several short trips here to Houston. Mrs. Laura was so helpful, compassionate, friendly and super attentive to my service here.  I absolutely will be back the price is def affordable near all the great spots we love.   Thank you for the wonderful changes and experiences! Nguyen More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r346096827-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -467,6 +647,51 @@
     <t>Marquence, really understands good customer service.  He is very polite, kind and always helpful.  I have had three different times I have dealt with him since I stay at the Quality Inn somewhat frequently lately.  He always has a can do attitude and more importantly has a complementing personality...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r343188765-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343188765</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>My stay was very nice. Marquence checked me in and was super polite and friendly. The room was clean. No complaints. I would stay here again and i recommend this hotel to anyone visiting the west side of houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>My stay was very nice. Marquence checked me in and was super polite and friendly. The room was clean. No complaints. I would stay here again and i recommend this hotel to anyone visiting the west side of houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r342960140-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342960140</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>The Wow Experience</t>
+  </si>
+  <si>
+    <t>I absolute love the joyfulness of me and my husband visit I am a elderly woman who is partially blind and when i go to hotels its hard for me to see but on this visit here to houston the young genteleman Marquence made me and my husband feel loved he greeted us with love he took his time out to not rush us help us understand and see what i was signing real good i would love to come only to this hotel because it is a dynamic experience this young man Marquence desreve a praise for his hard work im so delightedMoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>I absolute love the joyfulness of me and my husband visit I am a elderly woman who is partially blind and when i go to hotels its hard for me to see but on this visit here to houston the young genteleman Marquence made me and my husband feel loved he greeted us with love he took his time out to not rush us help us understand and see what i was signing real good i would love to come only to this hotel because it is a dynamic experience this young man Marquence desreve a praise for his hard work im so delightedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r341816579-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -539,6 +764,51 @@
     <t>I travel most of the time on business.  I really like Mr. Marquence.  He would go out of his way to accommodate and help people.   I noticed this by seeing how he conducted business with his guest.  A friendly and out going person.  I wish I had someone with his spirit and attitude to work for me in my business.  Business travel is always hectic but he made you feel right at home.  5 STARS for service.    The bed was comfortable and room was always cleaned very nice when I returned from my work assignments.   If I do travel back to the area I would stay again.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r339606975-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339606975</t>
+  </si>
+  <si>
+    <t>Good experience overall</t>
+  </si>
+  <si>
+    <t>Marquerice at the check in counter was very happy and upbeat. He was able to accommodate me proficiently upon arrival to Quality Inn &amp; Suites. I had been traveling all day, and it was nice to see a friendly face during check in. The rooms were clean and well stocked. I woke up every morning to a stocked breakfast bar. My only concern was that the hot water ran out on the morning of check out so I was not able to take a full shower. The person at the front desk that morning was prompt in responding, and even offered to let me use a vacant room to shower. Overall, I had a good experience and would stay here again on my next trip to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Marquerice at the check in counter was very happy and upbeat. He was able to accommodate me proficiently upon arrival to Quality Inn &amp; Suites. I had been traveling all day, and it was nice to see a friendly face during check in. The rooms were clean and well stocked. I woke up every morning to a stocked breakfast bar. My only concern was that the hot water ran out on the morning of check out so I was not able to take a full shower. The person at the front desk that morning was prompt in responding, and even offered to let me use a vacant room to shower. Overall, I had a good experience and would stay here again on my next trip to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r339228025-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339228025</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Clean, Room lovely, employee very polite will return and tell friends and family to stay at this hotel Great location Walking to various stores and restaurants staff great!!!  Free breakfast hot and cold servedMoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Clean, Room lovely, employee very polite will return and tell friends and family to stay at this hotel Great location Walking to various stores and restaurants staff great!!!  Free breakfast hot and cold servedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r338772189-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -612,6 +882,51 @@
   </si>
   <si>
     <t>Describe the service you experienced - good    Tell us how you liked the room - adequate    Talk about the location &amp; amenities - close to where I needed to be    Say what you liked best - breakfast &amp; least- pipesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r329130026-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329130026</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Great stay fantastic management</t>
+  </si>
+  <si>
+    <t>My spouse and I picked this particular hotel because the price was right and was located close to freeway access. The staff was attentive and the manager was very involved! I seen her in several different areas helping and interacting with her staff and guest. I travel quite a bit for a living and it is very rare and most times very difficult to even speak with the GM. Hotel has been partially renovated with all new beds, sofas, and recliners. I don't believe they are completely finished as some of the furniture and carpet is obviously older, but well kept. The breakfast is a lot more than just a simple continental breakfast that most places offer. I believe e a lot of the negative comments are from people expecting a 5 star experience when they clearly booked themselves at a 3 star hotel!! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Monika G, General Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>My spouse and I picked this particular hotel because the price was right and was located close to freeway access. The staff was attentive and the manager was very involved! I seen her in several different areas helping and interacting with her staff and guest. I travel quite a bit for a living and it is very rare and most times very difficult to even speak with the GM. Hotel has been partially renovated with all new beds, sofas, and recliners. I don't believe they are completely finished as some of the furniture and carpet is obviously older, but well kept. The breakfast is a lot more than just a simple continental breakfast that most places offer. I believe e a lot of the negative comments are from people expecting a 5 star experience when they clearly booked themselves at a 3 star hotel!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r328619205-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328619205</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Needed a quick getaway with my girlfriend and this place did it!</t>
+  </si>
+  <si>
+    <t>Was searching for a good place with a nice environment, read up some reviews and was a bit iffy about staying but decided to give this place a chance. Upon arrival I was greeted and checked in and headed to room within 5 minutes. When I arrived in room the place was nice and cool from the ac and everything looked pretty clean(place does need a few remodeling here and there but nothing that'll blow your mind over like some reviews made it seem nor did I experience loud noise at night.) Following day I checked out late and front desk was very courteous and even waived the fee. My girlfriend liked the stay and if she ever decides on another getaway like that am definetly coming back to this place.Bonus is that it has quite a bit of variety for food nearby and if you head down on the tollway towards Beechnut you'll find a very scenic park to either walk or enjoy some fresh air.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was searching for a good place with a nice environment, read up some reviews and was a bit iffy about staying but decided to give this place a chance. Upon arrival I was greeted and checked in and headed to room within 5 minutes. When I arrived in room the place was nice and cool from the ac and everything looked pretty clean(place does need a few remodeling here and there but nothing that'll blow your mind over like some reviews made it seem nor did I experience loud noise at night.) Following day I checked out late and front desk was very courteous and even waived the fee. My girlfriend liked the stay and if she ever decides on another getaway like that am definetly coming back to this place.Bonus is that it has quite a bit of variety for food nearby and if you head down on the tollway towards Beechnut you'll find a very scenic park to either walk or enjoy some fresh air.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r328146440-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
@@ -695,6 +1010,54 @@
     <t>After reading negative reviews, I was a hesitant.  I'm glad I gave it a chance.  This is the nicest, cleanest, friendliest hotel I have ever stayed at.  Corrie, Will (downtown Queens boy) &amp; housekeeping.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r317164032-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317164032</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>My stay here</t>
+  </si>
+  <si>
+    <t>We had a fabulous stay here !!! Great service nice breakfast nice and clean room !! A beautiful view and very close to stores for shopping and eating!! Thank you to corie she was perfect !! Aaaaaaaaaaaaaaafaaffshshddjfidjdvshshdjdbshsbshdhd djdbd did did djd did disks sjs sus sjsvsuMoreShow less</t>
+  </si>
+  <si>
+    <t>Monika G, Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>We had a fabulous stay here !!! Great service nice breakfast nice and clean room !! A beautiful view and very close to stores for shopping and eating!! Thank you to corie she was perfect !! Aaaaaaaaaaaaaaafaaffshshddjfidjdvshshdjdbshsbshdhd djdbd did did djd did disks sjs sus sjsvsuMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r304233516-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304233516</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Great staff great location Great Room</t>
+  </si>
+  <si>
+    <t>The rooms are really a lot nicer then I thought. The staff here is nice but the young man a the front desk...Willo is his name I believe was extremely nice and quick with the checking in process. Every time I stay here he always very helpful. The parking is good also and it's a great Japanese restaurant right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>The rooms are really a lot nicer then I thought. The staff here is nice but the young man a the front desk...Willo is his name I believe was extremely nice and quick with the checking in process. Every time I stay here he always very helpful. The parking is good also and it's a great Japanese restaurant right next door.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r294835634-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -764,6 +1127,54 @@
     <t>I have been a road warrior for the past thirty years. The room provided had a filthy bathroom floor. I notified the front desk immediately. I received an apology but no action. The next day, after room cleaning the bathroom floor was still filthy. The room did not have shampoo, the breakfast coffee did not have any half &amp; half or plain creamer only flavored creamers. I checked out, went to a clean Comfort Suites for basically the same rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r256668309-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256668309</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE. Poor Maintenance, Not what It use to be!</t>
+  </si>
+  <si>
+    <t>I've stayed here several times in the past, but it's been awhile.I think the ownership has changed because the maintenance is missing in action. This room is showing serious wear. The bathroom vanity is horribly stained and "beaten up". The walls are scared, with missing paint. The toilet doesn't flush. Half the lights don't work; burned out bulbs. The widow was open in the room and it was cold. The TV remote didn't work and the phone was out. NO WAKEUP CALL. I called the front desk. She was going to give me a new remote and replace the phone. SHE NEVER SHOWED! This is a sad place. With proper maintenance, this hotel could be fine. I'm going to ask for half my money back! DON'T STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn S, Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here several times in the past, but it's been awhile.I think the ownership has changed because the maintenance is missing in action. This room is showing serious wear. The bathroom vanity is horribly stained and "beaten up". The walls are scared, with missing paint. The toilet doesn't flush. Half the lights don't work; burned out bulbs. The widow was open in the room and it was cold. The TV remote didn't work and the phone was out. NO WAKEUP CALL. I called the front desk. She was going to give me a new remote and replace the phone. SHE NEVER SHOWED! This is a sad place. With proper maintenance, this hotel could be fine. I'm going to ask for half my money back! DON'T STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r255815922-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255815922</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>I hated this hotel</t>
+  </si>
+  <si>
+    <t>if they were giving rooms away I would rather pay to stay somewhere else. It smelled bad the free breakfast was not worth the price and they couldn't even give us a reciept when we checked out. quality is a poor description of this hotel unless you mean BAD quality,MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>if they were giving rooms away I would rather pay to stay somewhere else. It smelled bad the free breakfast was not worth the price and they couldn't even give us a reciept when we checked out. quality is a poor description of this hotel unless you mean BAD quality,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r251368654-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -779,15 +1190,9 @@
     <t>Had a room on the 4th floor, right by the center/elevator area.  Wifi was unusable on any of my devices.  No batteries in TV remote, few accessible outlets for charging.  Coffee in the lobby was cold.  Just don't seem to be trying very hard here.MoreShow less</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>Quality Inn S, Front Office Manager at Clarion Inn &amp; Suites West Chase, responded to this reviewResponded April 8, 2015</t>
   </si>
   <si>
-    <t>Responded April 8, 2015</t>
-  </si>
-  <si>
     <t>Had a room on the 4th floor, right by the center/elevator area.  Wifi was unusable on any of my devices.  No batteries in TV remote, few accessible outlets for charging.  Coffee in the lobby was cold.  Just don't seem to be trying very hard here.More</t>
   </si>
   <si>
@@ -831,6 +1236,45 @@
   </si>
   <si>
     <t>I am a travel agent and my church group and I came in on a Saturday.  When we arrived, the staff was very friendly and had us checked in very quickly.  The front desk even called my room to make sure everything was fine and up to my standards.  Everything was great!  The security guard was very helpful to us and our bus driver.  The manager, Ms. Laura, had everything together when we arrived.  It was a very quiet and peaceful stay.  We will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r223065938-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223065938</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Avoid avoid avoid!</t>
+  </si>
+  <si>
+    <t>If it wasn't for hotwire secret hotel deals, I wouldn't spend a dime here. From the past, Quality Inn is a good hotel chain, but this one particular location needs some help. At check in, the female (didn't know her name because she wasn't wearing a name tag) told us that the system was down and made us wait 30 minutes. But we do know she works morning shift because we saw her the next morning. Didn't bother to say Hi to us as we walked by. Her attitude is clearly a big issue. While I was waiting to be check in, another guest was ahead of me, so I observe her action. She would go back to the room while checking in guest and eat food. You can see it because her chewing is quite obvious. Quality Inn shirt she was wearing was quite dirty. Her handling of the phone and slamming it after each guest call is not good especially a guest is watching her every move. When it was my turn to check in, I lost all expectation of this hotel. If they can't train their staff to be polite, they wouldn't pay attention to the hotel maintenance. When she gave us our room key, she just threw it on the table and say your room is 314. Nothing else. No have a great stay, no breakfast info, no nothing. Felt like I was bothering her. So...If it wasn't for hotwire secret hotel deals, I wouldn't spend a dime here. From the past, Quality Inn is a good hotel chain, but this one particular location needs some help. At check in, the female (didn't know her name because she wasn't wearing a name tag) told us that the system was down and made us wait 30 minutes. But we do know she works morning shift because we saw her the next morning. Didn't bother to say Hi to us as we walked by. Her attitude is clearly a big issue. While I was waiting to be check in, another guest was ahead of me, so I observe her action. She would go back to the room while checking in guest and eat food. You can see it because her chewing is quite obvious. Quality Inn shirt she was wearing was quite dirty. Her handling of the phone and slamming it after each guest call is not good especially a guest is watching her every move. When it was my turn to check in, I lost all expectation of this hotel. If they can't train their staff to be polite, they wouldn't pay attention to the hotel maintenance. When she gave us our room key, she just threw it on the table and say your room is 314. Nothing else. No have a great stay, no breakfast info, no nothing. Felt like I was bothering her. So I would recommend Laura the manager on duty to watch over her staff.Upon checking into the room, we notice all the furniture is outdated. TV is flatscreen but the cheapest kind you can find. The bathroom door is a joke, it was previously broken and they just put a painted plywood across it to hold it up. Restroom was so dirty my wife didn't want to sit down. The stall had stains and I know there's chemical that could remove it or if it can't just replace it! Shower press is ok. A/C in room 314 sounds like it was dying cat. Wifi? There was but you better off using your phone internet. Bathroom towels hanger have rust on it. The way hang the hotels make you don't want to use it.In another note, when we were there, after coming back at 11pm we smell weed at front entrance of hotel and the front desk was no where to be found...so makes you wonder who is smoking it?MoreShow less</t>
+  </si>
+  <si>
+    <t>If it wasn't for hotwire secret hotel deals, I wouldn't spend a dime here. From the past, Quality Inn is a good hotel chain, but this one particular location needs some help. At check in, the female (didn't know her name because she wasn't wearing a name tag) told us that the system was down and made us wait 30 minutes. But we do know she works morning shift because we saw her the next morning. Didn't bother to say Hi to us as we walked by. Her attitude is clearly a big issue. While I was waiting to be check in, another guest was ahead of me, so I observe her action. She would go back to the room while checking in guest and eat food. You can see it because her chewing is quite obvious. Quality Inn shirt she was wearing was quite dirty. Her handling of the phone and slamming it after each guest call is not good especially a guest is watching her every move. When it was my turn to check in, I lost all expectation of this hotel. If they can't train their staff to be polite, they wouldn't pay attention to the hotel maintenance. When she gave us our room key, she just threw it on the table and say your room is 314. Nothing else. No have a great stay, no breakfast info, no nothing. Felt like I was bothering her. So...If it wasn't for hotwire secret hotel deals, I wouldn't spend a dime here. From the past, Quality Inn is a good hotel chain, but this one particular location needs some help. At check in, the female (didn't know her name because she wasn't wearing a name tag) told us that the system was down and made us wait 30 minutes. But we do know she works morning shift because we saw her the next morning. Didn't bother to say Hi to us as we walked by. Her attitude is clearly a big issue. While I was waiting to be check in, another guest was ahead of me, so I observe her action. She would go back to the room while checking in guest and eat food. You can see it because her chewing is quite obvious. Quality Inn shirt she was wearing was quite dirty. Her handling of the phone and slamming it after each guest call is not good especially a guest is watching her every move. When it was my turn to check in, I lost all expectation of this hotel. If they can't train their staff to be polite, they wouldn't pay attention to the hotel maintenance. When she gave us our room key, she just threw it on the table and say your room is 314. Nothing else. No have a great stay, no breakfast info, no nothing. Felt like I was bothering her. So I would recommend Laura the manager on duty to watch over her staff.Upon checking into the room, we notice all the furniture is outdated. TV is flatscreen but the cheapest kind you can find. The bathroom door is a joke, it was previously broken and they just put a painted plywood across it to hold it up. Restroom was so dirty my wife didn't want to sit down. The stall had stains and I know there's chemical that could remove it or if it can't just replace it! Shower press is ok. A/C in room 314 sounds like it was dying cat. Wifi? There was but you better off using your phone internet. Bathroom towels hanger have rust on it. The way hang the hotels make you don't want to use it.In another note, when we were there, after coming back at 11pm we smell weed at front entrance of hotel and the front desk was no where to be found...so makes you wonder who is smoking it?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r206951458-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206951458</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>customer service NOT good!</t>
+  </si>
+  <si>
+    <t>Terrible Terrible Terrible people at the front desk. i will never come here again. when we checked in she had a bad attitude from start. then to top it off there was no cold air coming out of the ac. not goodMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Terrible Terrible Terrible people at the front desk. i will never come here again. when we checked in she had a bad attitude from start. then to top it off there was no cold air coming out of the ac. not goodMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r204952346-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
@@ -849,9 +1293,6 @@
 I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk...I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk to manager (Laura) and Supervisor (Kim). Finally on the third day Kim tells me that it was discarded since we did nit know what it was. That made me so angry, I was speechless. I had my FedEx account number ready to give it to them and ask them to mail it to me (even arranging for the pick up).MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. 
 I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk...I stayed at this hotel mainly because its location and the fact that I was unable to find any other hotel. It was during the OTC (Offshore Technology Conference) May 5-8, 2014. Here are the details I like to share with anyone that is considering to stay in this Hotel. Although those who worked at the reception area were quite polite, they could not care less about you or your well being as a guest in the hotel. There were little cockroaches that were easily visible (I killed many of them) in the bathroom, but not in the room, I am only guessing because of the color of the carpet. In the morning after I was getting in the shower I noticed that they had forgotten to leave any Shampoo. I tried to call the phone in the room was out of order, but the one in the bathroom was operational so I was able to call and get shampoo. I usually am reluctant to write reviews unless I am praising good efforts, but the following happened, and made me so angry. I use a mouth guard that I had paid $600 to get it custom made. I left it in the room by mistake. I realized it when I got home. I called them right away. It was about 7 hours after I had checked out. Cut the story short. They asked me to call three times to talk to manager (Laura) and Supervisor (Kim). Finally on the third day Kim tells me that it was discarded since we did nit know what it was. That made me so angry, I was speechless. I had my FedEx account number ready to give it to them and ask them to mail it to me (even arranging for the pick up).More</t>
   </si>
@@ -892,6 +1333,42 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r195977172-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195977172</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Andrew - a pleasure at the front desk!</t>
+  </si>
+  <si>
+    <t>Myself and 2 business collegues checked in several hours later than we'd expected on Feb 23rd.  Andrew was at the front desk and made our check in experience, along with another few nights when we walked thru the lobby, very enjoyable.  Andrew is a hard working young man and it's obvious he likes his job, kudo's to him.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r191655375-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191655375</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Not sure what I'm missing with other reviews</t>
+  </si>
+  <si>
+    <t>this place is no more than a one star. Use trip advisor for my travel guide and usually question the one star ratings, BUT.... carpets are old and worn, furniture... I used a towel to sit on. just for fun I left a wine stain on the counter... 2 days before it was wiped away. Spilled water on the bathroom floor and used the towel to wipe, it come up black. Kept telling myself " whatever, price is reasonable" but last night when the toilet got plugged and was told that they would lend me a plunger so I could fix it, I was done. Check out, never to return to any non-Quality ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>this place is no more than a one star. Use trip advisor for my travel guide and usually question the one star ratings, BUT.... carpets are old and worn, furniture... I used a towel to sit on. just for fun I left a wine stain on the counter... 2 days before it was wiped away. Spilled water on the bathroom floor and used the towel to wipe, it come up black. Kept telling myself " whatever, price is reasonable" but last night when the toilet got plugged and was told that they would lend me a plunger so I could fix it, I was done. Check out, never to return to any non-Quality ever.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r190344741-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -907,9 +1384,6 @@
     <t>Our first stop was next door, because it was cheaper  by $15. After asking for a refund because the room was unsuitable we were asked to leave and not return.   We walked next door and found the Quality Inn, we were expecting the same results, but pleasantly found just the opposite, the rooms were very spacious, clean and the staff was great. suprising what $15 buys.   GOOD JOB EMPLOYEES OF QUALITY INN!</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r185893070-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1420,39 @@
     <t>Pretty close to it. While travelling for work anyway. The hotel I usually stay in while in Houston was booked so our travel office put me here. I'd have rather driven another 20 minutes to stay somewhere clean, not stinky and where the staff cared about the hotel. Breakfast is flat awful, skip it entirely. Noisy, as it faces a very busy highway, worn, dirty and smelly is how I'd describe this hotel, which was apparently once a Holiday Inn. In the parking lot you can see where they spray painted the lighted sign and flipped the plastic around so you almost can't see the Holiday Inn logo. Guess the place was too nasty to be a Holiday Inn anymore so they flipped it….Go elsewhere even if you're on a budgetMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r185238284-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185238284</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Excellent rooms and staff!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at Quality Inns before but this one is exceptional, it has rooms that put it at the top of the hotel rooms for Quality Inn's I have stayed at.  Spacious, very clean, and very comfortable.  It has given me a quiet, place to plan my next days activities and to find a place to have a good nights sleep.  There are restaurants and stores nearby some within walking distance and others within a short drive.  The staff is friendly and helpful and ready to assist without hesitation.  I know this because last night I needed a little assistance and the front desk young man came right to my room to help me out.  He like the others I have interacted with was courteous and respectful.  I plan on staying here again when in the Houston area.  Oh and btw, the price of a room was reasonable.   Thanks for a great week!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at Quality Inns before but this one is exceptional, it has rooms that put it at the top of the hotel rooms for Quality Inn's I have stayed at.  Spacious, very clean, and very comfortable.  It has given me a quiet, place to plan my next days activities and to find a place to have a good nights sleep.  There are restaurants and stores nearby some within walking distance and others within a short drive.  The staff is friendly and helpful and ready to assist without hesitation.  I know this because last night I needed a little assistance and the front desk young man came right to my room to help me out.  He like the others I have interacted with was courteous and respectful.  I plan on staying here again when in the Houston area.  Oh and btw, the price of a room was reasonable.   Thanks for a great week!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r184697017-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184697017</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>I get more than I expectExcellent room size, good breakfast selection and excellent service from the front desk staff.I was pleasently surprised with beds that were super comfortable and very clean, The romm was also very clean.I liked the location, we had every thing near.In general all the building is ok, you can rest good.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r180220360-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1510,42 @@
     <t>Well I typically don't stay in this brand hotel so I was kind of leery when I got this one from a discount sight.  I was pleasantly surprised. The rooms were very clean, the beds for super comfortable. The hotel even offers a hot breakfast which was surprising good also for the money. If you are staying on business this is a good place to stay. They don't have a pool or anything like that but as a general overall place to rest it was really good.  The negatives are the location is right off the highway, not that you could hear it and no pool</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r169232437-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169232437</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Disappointed in this location!</t>
+  </si>
+  <si>
+    <t>I booked 2 nights here.  When I arrived, I realized that they did not have a pool.  I should have checked this out prior to booking but I missed it.  The location was not really good but I decided to give it a try, as the price was less than $75 per night.  I went to dinner and realized that there was a much nicer Comfort Suites within 2 miles.  I stayed one night and then moved over to the Comfort Suites.  The hotel is older and looks to be remodeled but I did not geel good about the location, as a single woman traveler.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r158554007-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158554007</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>We found a $49.00 coupon for this hotel, so we really weren't expecting much. Boy were we wrong! The room was nice and big, the bathroom was very large, the beds were so comfortable and the breakfast was awesome!  The front desk staff was really nice. The hotel was clean. Nothing bad I can say about this hotel!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r157139348-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1592,42 @@
   </si>
   <si>
     <t>the hotel has an issue if you use the internet in the lobby on your labtop and then leave it may lock you out..That was the only issue I had. I received amazing service from Robin who was new there in regards to that, which influenced me to stay another night. Anton at front desk who was extremely helpful at 2am in the morning to assist me with maps etc to get around. He checked me in and also assisted me with other things very helpful. rooms are very clean and the location is great. Close to Galleria and 12 min drive to down town!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r150375404-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150375404</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>I won't stay at this hotel again</t>
+  </si>
+  <si>
+    <t>The hotel and rooms were very outdated including the furniture. Dresser drawer broken and wall paper coming off the wall. No vents or heat in the bathroom. Bed was very uncomfortable. Not enough tv channels. Couldn't watch an entire program because the cable kept giving a message of "service not found".. Could not connect to the wifi our entire two day stay even after we asked for assistance at the front desk. Breakfast was not good at all...food tasted rubbery; it was like it was an imitation breakfast. Need to have an on the spot cook. There was some sort of women's conference in one of the rooms next to the breakfast area that was disturbing the guest. Staff was friendly MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel and rooms were very outdated including the furniture. Dresser drawer broken and wall paper coming off the wall. No vents or heat in the bathroom. Bed was very uncomfortable. Not enough tv channels. Couldn't watch an entire program because the cable kept giving a message of "service not found".. Could not connect to the wifi our entire two day stay even after we asked for assistance at the front desk. Breakfast was not good at all...food tasted rubbery; it was like it was an imitation breakfast. Need to have an on the spot cook. There was some sort of women's conference in one of the rooms next to the breakfast area that was disturbing the guest. Staff was friendly More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r149378516-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149378516</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>We stayed here for one week</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one week, nice room, great location, very close to westhimer road wher we ware visiting our family for christmas. frendly staff. Toilet keep runing all the time other then room was very good!</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r144282484-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
@@ -1134,6 +1713,45 @@
   </si>
   <si>
     <t xml:space="preserve">Stayed here over spring break. Most of the staff was average ... like customer service wasn't the goal, but they were nice enough get by. Room was clean, no complaints. Location is fantastic. Westheimer is *right there*. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r129046274-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129046274</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>Is it a secret?</t>
+  </si>
+  <si>
+    <t>What a nice gem! I've seen this hotel since I usually stay next door at the Best Western Mini-suites( they were charging 100/night for some reason) and I am big big fan but this quality inn is def on par with BW. Check-in/room: Quick and efficient. Got a high floor king room away from the elevator. Yes! they have an elevator so no prob if you have a bunch of stuff. VERY clean and spacious. The king room I had had a small kitchen area with cabinets, microwave/fridge and a recliner in the sitting area. The rooms are just as large as the Mini-suites next door. Breakfast: Those icky powdered eggs, sausage, pastries, bagels, waffles. Typical of this class hotel. Enough to get you started for the dayReturn/recommend: Absolutely! The just need a pool and it would go from good to great. If my BW next door keeps increasing their prices, this may be my new Houston go to. 65/night is an excellent valueMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>What a nice gem! I've seen this hotel since I usually stay next door at the Best Western Mini-suites( they were charging 100/night for some reason) and I am big big fan but this quality inn is def on par with BW. Check-in/room: Quick and efficient. Got a high floor king room away from the elevator. Yes! they have an elevator so no prob if you have a bunch of stuff. VERY clean and spacious. The king room I had had a small kitchen area with cabinets, microwave/fridge and a recliner in the sitting area. The rooms are just as large as the Mini-suites next door. Breakfast: Those icky powdered eggs, sausage, pastries, bagels, waffles. Typical of this class hotel. Enough to get you started for the dayReturn/recommend: Absolutely! The just need a pool and it would go from good to great. If my BW next door keeps increasing their prices, this may be my new Houston go to. 65/night is an excellent valueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r113136836-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113136836</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>The rooms where roomy and the facility was well kept.  I did use the workout room and wish the machines were a bit older.  I stayed here for a business trip, so I was only in the room to sleep.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223158-r67437267-Clarion_Inn_Suites_West_Chase-Houston_Texas.html</t>
@@ -1727,7 +2345,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1735,23 +2353,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1767,34 +2381,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1808,7 +2422,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1845,27 +2459,31 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1902,35 +2520,27 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1946,58 +2556,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2013,7 +2613,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2022,43 +2622,47 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2074,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2083,25 +2687,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2113,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2135,52 +2739,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" t="s">
-        <v>111</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -2196,7 +2804,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2205,43 +2813,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2257,34 +2871,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2296,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2318,52 +2932,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2379,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2388,47 +3006,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2444,58 +3058,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
         <v>147</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>148</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>136</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
         <v>152</v>
-      </c>
-      <c r="X14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2511,56 +3119,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>156</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>157</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>136</v>
-      </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
         <v>160</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>161</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2576,31 +3180,35 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>166</v>
       </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2611,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
         <v>168</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>169</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2633,58 +3241,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
         <v>172</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>173</v>
       </c>
-      <c r="K17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" t="s">
-        <v>175</v>
-      </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -2700,34 +3302,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
         <v>179</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s">
-        <v>183</v>
-      </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2739,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -2761,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2770,47 +3372,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2826,56 +3424,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>196</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="O20" t="s">
         <v>197</v>
-      </c>
-      <c r="J20" t="s">
-        <v>198</v>
-      </c>
-      <c r="K20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" t="s">
-        <v>200</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s">
-        <v>137</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -2891,58 +3485,56 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
         <v>205</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" t="s">
-        <v>208</v>
-      </c>
-      <c r="L21" t="s">
-        <v>209</v>
-      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -2958,7 +3550,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2967,22 +3559,26 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2993,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -3015,7 +3611,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3024,49 +3620,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -3082,7 +3676,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3091,32 +3685,38 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -3127,7 +3727,7 @@
         <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -3143,7 +3743,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3152,49 +3752,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -3210,58 +3808,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
         <v>244</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="Y26" t="s">
         <v>245</v>
-      </c>
-      <c r="J26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>249</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>250</v>
-      </c>
-      <c r="X26" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -3277,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3286,22 +3874,22 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -3322,7 +3910,7 @@
         <v>251</v>
       </c>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
@@ -3338,7 +3926,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3347,32 +3935,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3381,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="X28" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
@@ -3403,7 +3993,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3412,49 +4002,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
@@ -3470,58 +4060,52 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>274</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>275</v>
       </c>
-      <c r="J30" t="s">
+      <c r="X30" t="s">
         <v>276</v>
       </c>
-      <c r="K30" t="s">
+      <c r="Y30" t="s">
         <v>277</v>
-      </c>
-      <c r="L30" t="s">
-        <v>278</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -3537,48 +4121,56 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
         <v>280</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>281</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>282</v>
-      </c>
-      <c r="K31" t="s">
-        <v>283</v>
-      </c>
-      <c r="L31" t="s">
-        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>283</v>
+      </c>
+      <c r="X31" t="s">
+        <v>284</v>
+      </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
@@ -3615,37 +4207,31 @@
         <v>290</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
         <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -3661,7 +4247,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3670,32 +4256,28 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
@@ -3709,10 +4291,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -3728,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3737,49 +4323,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>308</v>
+      </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
@@ -3795,7 +4379,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3804,49 +4388,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>306</v>
       </c>
-      <c r="K35" t="s">
-        <v>307</v>
-      </c>
-      <c r="L35" t="s">
-        <v>308</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>309</v>
-      </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -3862,7 +4446,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3871,49 +4455,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>316</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>2</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
@@ -3929,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3938,49 +4512,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
@@ -3996,7 +4564,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4005,45 +4573,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
@@ -4059,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4068,49 +4630,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>348</v>
+      </c>
+      <c r="X39" t="s">
+        <v>349</v>
+      </c>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
@@ -4126,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4135,49 +4697,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
       <c r="Y40" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
@@ -4193,7 +4749,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4202,53 +4758,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="X41" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Y41" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42">
@@ -4264,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4273,49 +4825,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>371</v>
+      </c>
+      <c r="X42" t="s">
+        <v>372</v>
+      </c>
       <c r="Y42" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43">
@@ -4331,7 +4883,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4340,45 +4892,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="K43" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>4</v>
       </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>371</v>
+      </c>
+      <c r="X43" t="s">
+        <v>372</v>
+      </c>
       <c r="Y43" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -4394,7 +4948,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4403,49 +4957,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>372</v>
+      </c>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
@@ -4461,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4470,49 +5024,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>372</v>
+      </c>
       <c r="Y45" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
@@ -4528,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4537,35 +5085,2013 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>348</v>
+      </c>
+      <c r="X46" t="s">
+        <v>349</v>
+      </c>
       <c r="Y46" t="s">
-        <v>378</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>371</v>
+      </c>
+      <c r="X47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K48" t="s">
+        <v>411</v>
+      </c>
+      <c r="L48" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>371</v>
+      </c>
+      <c r="X48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s">
+        <v>419</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>105</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>426</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>434</v>
+      </c>
+      <c r="J52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" t="s">
+        <v>437</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>432</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" t="s">
+        <v>448</v>
+      </c>
+      <c r="L54" t="s">
+        <v>449</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>443</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>450</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55" t="s">
+        <v>452</v>
+      </c>
+      <c r="K55" t="s">
+        <v>453</v>
+      </c>
+      <c r="L55" t="s">
+        <v>454</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>455</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>455</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>455</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>455</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s">
+        <v>477</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>478</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>485</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>497</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L63" t="s">
+        <v>502</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>503</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>505</v>
+      </c>
+      <c r="J64" t="s">
+        <v>506</v>
+      </c>
+      <c r="K64" t="s">
+        <v>507</v>
+      </c>
+      <c r="L64" t="s">
+        <v>508</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>509</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>510</v>
+      </c>
+      <c r="J65" t="s">
+        <v>511</v>
+      </c>
+      <c r="K65" t="s">
+        <v>512</v>
+      </c>
+      <c r="L65" t="s">
+        <v>513</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>514</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" t="s">
+        <v>517</v>
+      </c>
+      <c r="K66" t="s">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s">
+        <v>519</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>514</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>521</v>
+      </c>
+      <c r="J67" t="s">
+        <v>522</v>
+      </c>
+      <c r="K67" t="s">
+        <v>523</v>
+      </c>
+      <c r="L67" t="s">
+        <v>524</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>526</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>527</v>
+      </c>
+      <c r="J68" t="s">
+        <v>528</v>
+      </c>
+      <c r="K68" t="s">
+        <v>529</v>
+      </c>
+      <c r="L68" t="s">
+        <v>530</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>531</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>532</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>533</v>
+      </c>
+      <c r="J69" t="s">
+        <v>534</v>
+      </c>
+      <c r="K69" t="s">
+        <v>535</v>
+      </c>
+      <c r="L69" t="s">
+        <v>536</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>538</v>
+      </c>
+      <c r="X69" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" t="s">
+        <v>105</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>553</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>554</v>
+      </c>
+      <c r="J72" t="s">
+        <v>555</v>
+      </c>
+      <c r="K72" t="s">
+        <v>556</v>
+      </c>
+      <c r="L72" t="s">
+        <v>557</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>558</v>
+      </c>
+      <c r="O72" t="s">
+        <v>197</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>560</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>561</v>
+      </c>
+      <c r="J73" t="s">
+        <v>562</v>
+      </c>
+      <c r="K73" t="s">
+        <v>563</v>
+      </c>
+      <c r="L73" t="s">
+        <v>564</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>565</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>566</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>567</v>
+      </c>
+      <c r="J74" t="s">
+        <v>568</v>
+      </c>
+      <c r="K74" t="s">
+        <v>569</v>
+      </c>
+      <c r="L74" t="s">
+        <v>570</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>571</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>573</v>
+      </c>
+      <c r="J75" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" t="s">
+        <v>575</v>
+      </c>
+      <c r="L75" t="s">
+        <v>576</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>577</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>580</v>
+      </c>
+      <c r="J76" t="s">
+        <v>581</v>
+      </c>
+      <c r="K76" t="s">
+        <v>582</v>
+      </c>
+      <c r="L76" t="s">
+        <v>583</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
